--- a/data/emotions.xlsx
+++ b/data/emotions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">physical</t>
   </si>
   <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
     <t xml:space="preserve">buồn</t>
   </si>
   <si>
@@ -44,6 +47,15 @@
   </si>
   <si>
     <t xml:space="preserve">:(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buồn bã là phản ứng trước sự mất mát mà chúng ta quan tâm.
+Đây là cảm xúc rất đau đớn, và có thể giúp chúng ta tránh gặp phải mất mát trong tương lai hoặc trân trọng những gì chúng ta có lại sau mọi khó khăn (ví dụ như người yêu).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buồn bã thường hình thành từ ngực và tiến dần lên cổ và mắt, khiến chúng ta khóc.
+Có thể bạn đã nghe ai đó nói "Cô ấy nghẹn ngào". Cho phép bản thân được khóc là cách để giải tỏa tâm sự trong lòng.
+Việc chú ý đến cảm giác về mặt thể chất tại những vùng này và cho phép nguồn năng lượng được lan tỏa sẽ giúp chúng ta bộc lộ nỗi buồn sau mất mát và đồng cảm với nỗi đau của người khác.</t>
   </si>
   <si>
     <t xml:space="preserve">vui</t>
@@ -77,13 +89,57 @@
     <t xml:space="preserve">scare</t>
   </si>
   <si>
+    <t xml:space="preserve">Sợ hãi là phản ứng trước mối nguy hại, chẳng hạn như thú dữ, độ cao hoặc súng. Đây là cảm giác giúp chúng ta tránh xa các mối nguy hại này tại thời điểm đó và không đến gần chúng trong tương lai.
+Mặc dù sợ hãi là phản ứng cảm xúc đã tiến hóa, nhưng những điều khiến chúng ta sợ hãi lại được tích lũy thông qua trải nghiệm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sợ hãi thường được cảm nhận từ thân trên. Tuy nhiên, đối với chứng sợ độ cao, cảm giác sợ hãi thường xuất hiện ở chân.
+Khi cảm thấy sợ hãi, tim của bạn sẽ đập nhanh hơn và bạn bắt đầu thở gấp, lòng bàn tay của bạn sẽ toát mồ hôi và có cảm giác nóng vì một phần của hệ thần kinh đang hoạt động mạnh. Đây là phản ứng có tên chống trả hay bỏ chạy.</t>
+  </si>
+  <si>
     <t xml:space="preserve">hạnh phúc</t>
   </si>
   <si>
+    <t xml:space="preserve">Hạnh phúc là phản ứng trước những điều thường có liên quan đến việc tồn tại, phát triển, và di truyền cho thế hệ sau.
+Một số điều khiến chúng ta hạnh phúc bao gồm tình dục, có con, đạt được thành công với mục tiêu có giá trị, được người khác khen thưởng và được chào đón.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hạnh phúc có thể là cảm giác ấm áp lan tỏa trên toàn cơ thể hoặc có thể bao gồm sự mãn nguyện, an toàn, hoặc sống một cuộc sống yên vui.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mặc dù hạnh phúc có lẽ là một trong những cảm xúc dễ nhận biết hoặc được biết đến nhiều nhất, nhưng đây cũng là một trong số các cảm xúc khó định nghĩa nhất.</t>
+  </si>
+  <si>
     <t xml:space="preserve">bất ngờ</t>
   </si>
   <si>
     <t xml:space="preserve">surprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngạc nhiên là phản ứng xuất hiện trước một điều gì đó bất ngờ nhưng không phải là mối nguy hại.
+Đây là cảm xúc khá thú vị vì sự trung tính khi so sánh với các loại cảm xúc khác vốn có xu hướng thiên về tích cực hoặc tiêu cực.
+Sự ngạc nhiên có tác dụng chuyển hướng sự chú ý đến những điều mới lạ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cảm giác ngạc nhiên được cảm nhận chủ yếu tại phần đầu và ngực. Đó là phản ứng trước yếu tố nằm ngoài mong đợi và khiến bạn hơi choáng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinh tởm là phản ứng đối với tác nhân đem đến sự ghê tởm, thường khiến chúng ta khó chịu về mặt thể chất.
+Cảm xúc này được hình thành để bảo vệ chúng ta trước những thứ có thể gây cảm giác không thoải mái.
+Đây cũng là cảm xúc xuất hiện khi chúng ta nhận thấy những điều mang hàm ý tởm lợm - chẳng hạn như những hành vi đi ngược chuẩn mực đạo đức.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cảm giác kinh tởm thường được cảm nhận chủ yếu ở bụng, ngực và vùng đầu.
+Bạn sẽ cảm thấy khó chịu trong người hoặc buồn nôn và bạn chỉ muốn bịt mũi rồi di chuyển ra xa tác nhân đem đến sự ghê tởm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tin tưởng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust</t>
   </si>
 </sst>
 </file>
@@ -184,15 +240,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -212,65 +271,114 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
